--- a/SQL/marque voiture.xlsx
+++ b/SQL/marque voiture.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Renault.</t>
   </si>
@@ -128,15 +128,9 @@
     <t>INSERT INTO marque("&amp;"A2$"&amp;") VALUE("&amp;A2&amp;")"</t>
   </si>
   <si>
-    <t>="insert into marques(idMarque, marque) values("""&amp;A1&amp;""");"</t>
-  </si>
-  <si>
     <t>Modele</t>
   </si>
   <si>
-    <t>="insert into modele (libelleModel, idMarque )values("""&amp;K2&amp;""","&amp;L2&amp;");"</t>
-  </si>
-  <si>
     <t>idModele</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
   </si>
   <si>
     <t>idMarque</t>
-  </si>
-  <si>
-    <t>="insert into marques(idMarque, marque) values("""&amp;$A1&amp;""");"</t>
   </si>
 </sst>
 </file>
@@ -564,7 +555,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,19 +568,20 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>"insert into marques(idMarque, marque) values("""&amp;$A1&amp;""");"</f>
+        <v>insert into marques(idMarque, marque) values("Marques");</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -599,17 +591,19 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
+      <c r="D2" s="2" t="str">
+        <f>"insert into marques(idMarque, marque) values("""&amp;A1&amp;""");"</f>
+        <v>insert into marques(idMarque, marque) values("Marques");</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
+      <c r="M2" s="2" t="str">
+        <f>"insert into modele (libelleModel, idMarque )values("""&amp;K2&amp;""","&amp;L2&amp;");"</f>
+        <v>insert into modele (libelleModel, idMarque )values("I3 ",1);</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -620,18 +614,20 @@
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D33" si="0">"insert into marques(idMarque, marque) values("""&amp;A2&amp;""");"</f>
+        <v>insert into marques(idMarque, marque) values("Audi");</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <f>L2+1</f>
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>36</v>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M33" si="1">"insert into modele (libelleModel, idMarque )values("""&amp;K3&amp;""","&amp;L3&amp;");"</f>
+        <v>insert into modele (libelleModel, idMarque )values("I8 ",2);</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -639,21 +635,23 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B33" si="0">B3+1</f>
+        <f t="shared" ref="B4:B33" si="2">B3+1</f>
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Peugot");</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L33" si="1">L3+1</f>
+        <f t="shared" ref="L4:L33" si="3">L3+1</f>
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("M3 ",3);</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -661,21 +659,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Renault.");</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("M4 ",4);</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -683,21 +683,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Opel.");</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("M5 ",5);</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,21 +707,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Fiat.");</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>36</v>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("SERIE 3 ACTIVEHYBRID ",6);</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -727,21 +731,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Volkswagen");</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>36</v>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("SERIE 5 ACTIVEHYBRID ",7);</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -749,21 +755,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Mercedes");</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>36</v>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("SERIE 7 ACTIVEHYBRID ",8);</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,21 +779,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Citroën.");</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>36</v>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("X1 ",9);</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -793,21 +803,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("FordFord Mustang");</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>36</v>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("X3 ",10);</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -815,21 +827,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Fuso");</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>36</v>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("X4 ",11);</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -837,21 +851,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("GAZGinetta");</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>36</v>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("X5 ",12);</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -859,21 +875,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("GMCGrecav");</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>36</v>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("X6 ",13);</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -881,21 +899,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>34</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Gumpert");</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>36</v>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("Z4 ",14);</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -903,21 +923,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Honda");</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>36</v>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("ATS ",15);</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -925,21 +947,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Horch");</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>36</v>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("CTS ",16);</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,21 +971,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Hummer");</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>36</v>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("ESCALADE ",17);</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -969,21 +995,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Hyundai");</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>36</v>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("SRX ",18);</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -991,21 +1019,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Infiniti");</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>36</v>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("CAMARO ",19);</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1013,21 +1043,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Innocenti");</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>36</v>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("CORVETTE ",20);</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1035,21 +1067,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Isuzu");</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>36</v>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("BERLINGO ",21);</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1057,21 +1091,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Iveco");</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>36</v>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C-ZERO ",22);</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,21 +1115,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Jaguar");</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>36</v>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C1 ",23);</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1101,21 +1139,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("JDM ");</v>
       </c>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>36</v>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C3 ",24);</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1123,21 +1163,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Simpa");</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>36</v>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C3 PICASSO ",25);</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1145,21 +1187,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Jeep");</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>36</v>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C4 ",26);</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1167,21 +1211,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Kia");</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>36</v>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C4 AIRCROSS ",27);</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1189,21 +1235,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Koenigsegg");</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>36</v>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C4 CACTUS ",28);</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1211,21 +1259,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("KTM");</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>36</v>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C4 PICASSO ",29);</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1233,21 +1283,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>34</v>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Lada");</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>36</v>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C5 ",30);</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,21 +1307,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Lamborghini");</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>36</v>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("C8 ",31);</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1277,21 +1331,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into marques(idMarque, marque) values("Lancia");</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>36</v>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into modele (libelleModel, idMarque )values("DS3 ",32);</v>
       </c>
     </row>
   </sheetData>
